--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>78748</v>
+        <v>81015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Melissa Caldeira</t>
+          <t>Benício Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>11403.46</v>
+        <v>11183.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84457</v>
+        <v>79926</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Miguel da Cunha</t>
+          <t>Dra. Alícia Melo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>8728.76</v>
+        <v>5514.72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98998</v>
+        <v>26944</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ana Sophia Costela</t>
+          <t>Rafaela Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>5329.3</v>
+        <v>10629.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8058</v>
+        <v>73138</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maysa Gonçalves</t>
+          <t>Renan da Rosa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>2817.66</v>
+        <v>2615.06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65970</v>
+        <v>41446</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laura Correia</t>
+          <t>Amanda Aragão</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>4388.12</v>
+        <v>10061.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4181</v>
+        <v>89670</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Valentina Martins</t>
+          <t>Bruna Lopes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>2678.12</v>
+        <v>6877.89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84337</v>
+        <v>33823</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lara da Cunha</t>
+          <t>Joaquim da Mota</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>11302</v>
+        <v>3751.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22653</v>
+        <v>39279</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Ramos</t>
+          <t>Dr. Luiz Gustavo Oliveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>6423.26</v>
+        <v>7096.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>72909</v>
+        <v>34652</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Brenda Aragão</t>
+          <t>Ana Laura Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>5099.32</v>
+        <v>8741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6888</v>
+        <v>83784</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucca Souza</t>
+          <t>Alice Ribeiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>12245.6</v>
+        <v>3493.8</v>
       </c>
     </row>
   </sheetData>
